--- a/scimagojr/scimagojr_2019.xlsx
+++ b/scimagojr/scimagojr_2019.xlsx
@@ -74,15 +74,15 @@
     <t>Italy</t>
   </si>
   <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Eastern Europe</t>
+  </si>
+  <si>
     <t>France</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Eastern Europe</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -104,15 +104,15 @@
     <t>Latin America</t>
   </si>
   <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Middle East</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
@@ -143,45 +143,45 @@
     <t>Portugal</t>
   </si>
   <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
     <t>Egypt</t>
   </si>
   <si>
     <t>Africa/Middle East</t>
   </si>
   <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
     <t>Hong Kong</t>
   </si>
   <si>
+    <t>Israel</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -191,15 +191,15 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
@@ -215,12 +215,12 @@
     <t>Iraq</t>
   </si>
   <si>
+    <t>Hungary</t>
+  </si>
+  <si>
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -236,18 +236,18 @@
     <t>Morocco</t>
   </si>
   <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
     <t>Algeria</t>
   </si>
   <si>
+    <t>Croatia</t>
+  </si>
+  <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
@@ -269,57 +269,57 @@
     <t>Ethiopia</t>
   </si>
   <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
     <t>Qatar</t>
   </si>
   <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
+    <t>Kenya</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
     <t>Oman</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Macao</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -338,24 +338,24 @@
     <t>Cameroon</t>
   </si>
   <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -383,57 +383,57 @@
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t>Botswana</t>
+  </si>
+  <si>
     <t>Panama</t>
   </si>
   <si>
-    <t>Botswana</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
     <t>Yemen</t>
   </si>
   <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Benin</t>
   </si>
   <si>
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Benin</t>
-  </si>
-  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
-    <t>Côte d’Ivoire</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Moldova</t>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Libya</t>
   </si>
   <si>
     <t>Mauritius</t>
   </si>
   <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
@@ -443,21 +443,21 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
     <t>Congo</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
+    <t>Bolivia</t>
   </si>
   <si>
     <t>Fiji</t>
   </si>
   <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -467,15 +467,15 @@
     <t>Madagascar</t>
   </si>
   <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
     <t>Laos</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -485,33 +485,33 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Monaco</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>Tajikistan</t>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Niger</t>
   </si>
   <si>
     <t>Gabon</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
     <t>North Korea</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
@@ -524,21 +524,21 @@
     <t>French Polynesia</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Angola</t>
   </si>
   <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Angola</t>
+    <t>Bhutan</t>
   </si>
   <si>
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
@@ -551,12 +551,12 @@
     <t>El Salvador</t>
   </si>
   <si>
+    <t>Haïti</t>
+  </si>
+  <si>
     <t>Liberia</t>
   </si>
   <si>
-    <t>Haïti</t>
-  </si>
-  <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
@@ -566,54 +566,54 @@
     <t>French Guiana</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
     <t>Bahamas</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>Mauritania</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
   </si>
   <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
+    <t>Martinique</t>
+  </si>
+  <si>
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Martinique</t>
-  </si>
-  <si>
     <t>San Marino</t>
   </si>
   <si>
@@ -623,22 +623,25 @@
     <t>Belize</t>
   </si>
   <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
     <t>Reunion</t>
   </si>
   <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Maldives</t>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
+    <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
     <t>Andorra</t>
@@ -647,67 +650,70 @@
     <t>Dominica</t>
   </si>
   <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
     <t>Palau</t>
   </si>
   <si>
     <t>Cayman Islands</t>
   </si>
   <si>
+    <t>Aruba</t>
+  </si>
+  <si>
     <t>Republic of South Sudan</t>
   </si>
   <si>
-    <t>Aruba</t>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
     <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>Vatican City State</t>
   </si>
   <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
     <t>Cook Islands</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Virgin Islands (U.S.)</t>
+    <t>American Samoa</t>
   </si>
   <si>
     <t>Anguilla</t>
@@ -716,19 +722,16 @@
     <t>Mayotte</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
   </si>
   <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
+    <t>British Indian Ocean Territory</t>
   </si>
   <si>
     <t>Netherlands Antilles</t>
@@ -737,9 +740,6 @@
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -749,22 +749,22 @@
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
     <t>Nauru</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
     <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
     <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
   </si>
 </sst>
 </file>
@@ -908,22 +908,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>707258</v>
+        <v>722768</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>608967</v>
+        <v>614312</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>6021707</v>
+        <v>12701106</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2460006</v>
+        <v>4677954</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>8.51</v>
+        <v>17.57</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -937,22 +937,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>699385</v>
+        <v>713556</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>682067</v>
+        <v>698777</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5820151</v>
+        <v>12114157</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3824634</v>
+        <v>7840264</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>8.32</v>
+        <v>16.98</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -966,22 +966,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>219924</v>
+        <v>226623</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>186359</v>
+        <v>188071</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2097593</v>
+        <v>4347166</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>486239</v>
+        <v>872075</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>9.54</v>
+        <v>19.18</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -995,22 +995,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>201857</v>
+        <v>206012</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>183435</v>
+        <v>185439</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1011985</v>
+        <v>2151809</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>386115</v>
+        <v>807138</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>5.01</v>
+        <v>10.45</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1024,22 +1024,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>193799</v>
+        <v>196467</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>173149</v>
+        <v>174524</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1684279</v>
+        <v>3410667</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>433212</v>
+        <v>754825</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>8.69</v>
+        <v>17.36</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1053,22 +1053,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>137582</v>
+        <v>137492</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>127355</v>
+        <v>127187</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>868293</v>
+        <v>1733085</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>222706</v>
+        <v>382427</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>6.31</v>
+        <v>12.6</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1082,22 +1082,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>130806</v>
+        <v>133291</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>115659</v>
+        <v>117171</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1144542</v>
+        <v>2259952</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>326372</v>
+        <v>550485</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>8.75</v>
+        <v>16.96</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1108,25 +1108,25 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>124158</v>
+        <v>127284</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>112082</v>
+        <v>123038</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1052879</v>
+        <v>769256</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>208424</v>
+        <v>315348</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>8.48</v>
+        <v>6.04</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1352</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1134,28 +1134,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>119925</v>
+        <v>125508</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>115818</v>
+        <v>113181</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>418245</v>
+        <v>2113019</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>192080</v>
+        <v>360155</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.49</v>
+        <v>16.84</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>675</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1169,22 +1169,22 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>117948</v>
+        <v>120408</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>104326</v>
+        <v>105360</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1123880</v>
+        <v>2327650</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>201003</v>
+        <v>359195</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>9.53</v>
+        <v>19.33</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1198,22 +1198,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>112399</v>
+        <v>115461</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>98759</v>
+        <v>99733</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1185337</v>
+        <v>2476557</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>234046</v>
+        <v>413669</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>10.55</v>
+        <v>21.45</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1227,22 +1227,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>103246</v>
+        <v>106449</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>94353</v>
+        <v>97105</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>889055</v>
+        <v>1784670</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>199655</v>
+        <v>347145</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>8.61</v>
+        <v>16.77</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1256,22 +1256,22 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>91748</v>
+        <v>92554</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>87850</v>
+        <v>89149</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>731958</v>
+        <v>1502182</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>154964</v>
+        <v>264342</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>7.98</v>
+        <v>16.23</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1285,22 +1285,22 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>88276</v>
+        <v>91041</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>82783</v>
+        <v>85472</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>504529</v>
+        <v>1041427</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>147389</v>
+        <v>278795</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>5.72</v>
+        <v>11.44</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1311,25 +1311,25 @@
         <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>65779</v>
+        <v>67450</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>58245</v>
+        <v>65311</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>752249</v>
+        <v>1044098</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>119880</v>
+        <v>289400</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>11.44</v>
+        <v>15.48</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1206</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1337,28 +1337,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>64945</v>
+        <v>66748</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>62605</v>
+        <v>58671</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>515182</v>
+        <v>1535128</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>169873</v>
+        <v>208565</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>7.93</v>
+        <v>23</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>416</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1369,25 +1369,25 @@
         <v>32</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>53754</v>
+        <v>56623</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>49755</v>
+        <v>52277</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>343783</v>
+        <v>679504</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>84243</v>
+        <v>139629</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1398,25 +1398,25 @@
         <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>50830</v>
+        <v>53093</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>46765</v>
+        <v>48563</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>294241</v>
+        <v>604922</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>67472</v>
+        <v>124106</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>5.79</v>
+        <v>11.39</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1430,22 +1430,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>50669</v>
+        <v>51246</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>45195</v>
+        <v>45586</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>604893</v>
+        <v>1207246</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>86542</v>
+        <v>146963</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>11.94</v>
+        <v>23.56</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1459,22 +1459,22 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>47643</v>
+        <v>49257</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>46986</v>
+        <v>48551</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>114566</v>
+        <v>235978</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>52569</v>
+        <v>95890</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>2.4</v>
+        <v>4.79</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1488,22 +1488,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>45525</v>
+        <v>45904</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>41119</v>
+        <v>41366</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>497698</v>
+        <v>1007151</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>71635</v>
+        <v>122856</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>10.93</v>
+        <v>21.94</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1517,22 +1517,22 @@
         <v>12</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>39242</v>
+        <v>38695</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>37226</v>
+        <v>36781</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>289643</v>
+        <v>588306</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>49369</v>
+        <v>82130</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>7.38</v>
+        <v>15.2</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1546,22 +1546,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>38043</v>
+        <v>38295</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>36386</v>
+        <v>36426</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>231482</v>
+        <v>490883</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>58427</v>
+        <v>102473</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>6.08</v>
+        <v>12.82</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1575,22 +1575,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>36063</v>
+        <v>36575</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>32277</v>
+        <v>32592</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>395324</v>
+        <v>793128</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>53059</v>
+        <v>87179</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>10.96</v>
+        <v>21.68</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1604,22 +1604,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>30893</v>
+        <v>31492</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>27674</v>
+        <v>28068</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>365718</v>
+        <v>741831</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>51171</v>
+        <v>87548</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>11.84</v>
+        <v>23.56</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1633,22 +1633,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>30125</v>
+        <v>31045</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>27004</v>
+        <v>27592</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>247751</v>
+        <v>506748</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>41793</v>
+        <v>73991</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>8.22</v>
+        <v>16.32</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1659,25 +1659,25 @@
         <v>42</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>29131</v>
+        <v>29908</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>26596</v>
+        <v>26715</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>175918</v>
+        <v>435864</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>31504</v>
+        <v>78551</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>6.04</v>
+        <v>14.57</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>536</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1685,28 +1685,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>29041</v>
+        <v>29681</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>25988</v>
+        <v>26988</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>278922</v>
+        <v>354226</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>39035</v>
+        <v>57966</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>9.6</v>
+        <v>11.93</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>783</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1714,28 +1714,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>28994</v>
+        <v>29634</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>26367</v>
+        <v>26263</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>209548</v>
+        <v>558509</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>43219</v>
+        <v>64900</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>7.23</v>
+        <v>18.85</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>567</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1746,25 +1746,25 @@
         <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>28100</v>
+        <v>28340</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>26803</v>
+        <v>27088</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>290179</v>
+        <v>577473</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>64049</v>
+        <v>107749</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>10.33</v>
+        <v>20.38</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1775,25 +1775,25 @@
         <v>47</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>27131</v>
+        <v>27451</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>25595</v>
+        <v>25915</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>185683</v>
+        <v>354214</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>33500</v>
+        <v>54188</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>6.84</v>
+        <v>12.9</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1804,25 +1804,25 @@
         <v>48</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>25976</v>
+        <v>26278</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>24672</v>
+        <v>23359</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>204376</v>
+        <v>513483</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>57152</v>
+        <v>64734</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>7.87</v>
+        <v>19.54</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>349</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1830,28 +1830,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D34" s="0" t="n">
-        <v>25771</v>
+        <v>26019</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>23152</v>
+        <v>24781</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>251351</v>
+        <v>414365</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>37416</v>
+        <v>99184</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>9.75</v>
+        <v>15.93</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>747</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1865,22 +1865,22 @@
         <v>12</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>25045</v>
+        <v>25913</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>23672</v>
+        <v>24526</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>212878</v>
+        <v>440936</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>59159</v>
+        <v>104445</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>8.5</v>
+        <v>17.02</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1894,22 +1894,22 @@
         <v>12</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>24472</v>
+        <v>24634</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>22871</v>
+        <v>22927</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>312829</v>
+        <v>668211</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>37552</v>
+        <v>64943</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>12.78</v>
+        <v>27.13</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1920,25 +1920,25 @@
         <v>53</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>23942</v>
+        <v>24032</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>21843</v>
+        <v>21240</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>315657</v>
+        <v>432931</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>37407</v>
+        <v>52346</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>13.18</v>
+        <v>18.01</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>697</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1949,25 +1949,25 @@
         <v>54</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>23705</v>
+        <v>23922</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>21081</v>
+        <v>21689</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>212356</v>
+        <v>667145</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>29925</v>
+        <v>59951</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>8.96</v>
+        <v>27.89</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1981,22 +1981,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>23060</v>
+        <v>23538</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>20861</v>
+        <v>21043</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>227074</v>
+        <v>456702</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>33537</v>
+        <v>58113</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>9.85</v>
+        <v>19.4</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2010,22 +2010,22 @@
         <v>14</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>21585</v>
+        <v>22153</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>19073</v>
+        <v>19316</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>189430</v>
+        <v>376324</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>29350</v>
+        <v>50003</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>8.78</v>
+        <v>16.99</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2039,22 +2039,22 @@
         <v>12</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>20311</v>
+        <v>20277</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>19410</v>
+        <v>19400</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>114159</v>
+        <v>235619</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>21953</v>
+        <v>39808</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>5.62</v>
+        <v>11.62</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2065,25 +2065,25 @@
         <v>58</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>18074</v>
+        <v>20264</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>15825</v>
+        <v>19471</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>168195</v>
+        <v>128016</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>22434</v>
+        <v>53118</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>9.31</v>
+        <v>6.32</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>633</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2094,25 +2094,25 @@
         <v>59</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>18046</v>
+        <v>18690</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>16970</v>
+        <v>17473</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>101312</v>
+        <v>190638</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>19923</v>
+        <v>32206</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>5.61</v>
+        <v>10.2</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2123,25 +2123,25 @@
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>18005</v>
+        <v>18506</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>17279</v>
+        <v>15914</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>69929</v>
+        <v>352033</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>31561</v>
+        <v>38780</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>3.88</v>
+        <v>19.02</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>323</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2155,22 +2155,22 @@
         <v>14</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>16891</v>
+        <v>17216</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>14820</v>
+        <v>14890</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>161332</v>
+        <v>327931</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>19906</v>
+        <v>33079</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>9.55</v>
+        <v>19.05</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2184,22 +2184,22 @@
         <v>28</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>16301</v>
+        <v>16506</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>15272</v>
+        <v>15470</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>123701</v>
+        <v>246401</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>24044</v>
+        <v>41767</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>7.59</v>
+        <v>14.93</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2213,22 +2213,22 @@
         <v>28</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>15123</v>
+        <v>15763</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>14039</v>
+        <v>14545</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>102396</v>
+        <v>206604</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>17532</v>
+        <v>31670</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>6.77</v>
+        <v>13.11</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2242,22 +2242,22 @@
         <v>28</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>14776</v>
+        <v>15469</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>13916</v>
+        <v>14559</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>83195</v>
+        <v>165631</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>14934</v>
+        <v>25774</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>5.63</v>
+        <v>10.71</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2268,25 +2268,25 @@
         <v>65</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>14177</v>
+        <v>14485</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>14002</v>
+        <v>14322</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>54846</v>
+        <v>110815</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>18682</v>
+        <v>33609</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>3.87</v>
+        <v>7.65</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2297,25 +2297,25 @@
         <v>66</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>12607</v>
+        <v>12870</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>11999</v>
+        <v>11934</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>112692</v>
+        <v>203263</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>27306</v>
+        <v>26439</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>8.94</v>
+        <v>15.79</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>269</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2326,25 +2326,25 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>12606</v>
+        <v>12860</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>11721</v>
+        <v>12298</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>105949</v>
+        <v>219671</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>16185</v>
+        <v>39505</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>8.4</v>
+        <v>17.08</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>540</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2355,25 +2355,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>12006</v>
+        <v>12831</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>11279</v>
+        <v>11994</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>63973</v>
+        <v>140150</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>15496</v>
+        <v>28866</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>5.33</v>
+        <v>10.92</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2384,25 +2384,25 @@
         <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>9756</v>
+        <v>9998</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>9164</v>
+        <v>9370</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>53233</v>
+        <v>104014</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>10801</v>
+        <v>17713</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>5.46</v>
+        <v>10.4</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2413,25 +2413,25 @@
         <v>70</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>9367</v>
+        <v>9366</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>8726</v>
+        <v>8602</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>77963</v>
+        <v>162862</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>11013</v>
+        <v>18656</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>8.32</v>
+        <v>17.39</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2442,25 +2442,25 @@
         <v>71</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>8863</v>
+        <v>9175</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>8202</v>
+        <v>8523</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>61431</v>
+        <v>116010</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>8782</v>
+        <v>15787</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>6.93</v>
+        <v>12.64</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2471,25 +2471,25 @@
         <v>72</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>8693</v>
+        <v>8868</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>8187</v>
+        <v>8209</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>44645</v>
+        <v>91396</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>12334</v>
+        <v>22945</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>5.14</v>
+        <v>10.31</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2500,25 +2500,25 @@
         <v>73</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>8690</v>
+        <v>8438</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>8288</v>
+        <v>7904</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>45615</v>
+        <v>90403</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>10102</v>
+        <v>14545</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>5.25</v>
+        <v>10.71</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>213</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2529,25 +2529,25 @@
         <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>8306</v>
+        <v>8423</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>7889</v>
+        <v>8013</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>58022</v>
+        <v>87194</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>14273</v>
+        <v>17767</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>6.99</v>
+        <v>10.35</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2558,25 +2558,25 @@
         <v>75</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>8305</v>
+        <v>8383</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>7800</v>
+        <v>7720</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>43667</v>
+        <v>103686</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>8216</v>
+        <v>13266</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>5.26</v>
+        <v>12.37</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>235</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2587,25 +2587,25 @@
         <v>76</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>8114</v>
+        <v>7955</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>7533</v>
+        <v>7508</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>51407</v>
+        <v>122093</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>7772</v>
+        <v>24471</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>6.34</v>
+        <v>15.35</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>337</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2616,25 +2616,25 @@
         <v>77</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>7121</v>
+        <v>7308</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>6568</v>
+        <v>6703</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>55152</v>
+        <v>108677</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>7463</v>
+        <v>12370</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>7.74</v>
+        <v>14.87</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2645,25 +2645,25 @@
         <v>78</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>6672</v>
+        <v>6885</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>6298</v>
+        <v>6500</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>35343</v>
+        <v>70263</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>6202</v>
+        <v>10261</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>5.3</v>
+        <v>10.21</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2677,22 +2677,22 @@
         <v>12</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>5808</v>
+        <v>5640</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>5492</v>
+        <v>5273</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>31625</v>
+        <v>63296</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>4812</v>
+        <v>7997</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>5.45</v>
+        <v>11.22</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2703,25 +2703,25 @@
         <v>80</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>5457</v>
+        <v>5477</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>5290</v>
+        <v>5322</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>35746</v>
+        <v>75229</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>6447</v>
+        <v>12274</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>6.55</v>
+        <v>13.74</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2735,22 +2735,22 @@
         <v>28</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>5309</v>
+        <v>5406</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>5005</v>
+        <v>5089</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>24517</v>
+        <v>48975</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>4721</v>
+        <v>8069</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>4.62</v>
+        <v>9.06</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2764,22 +2764,22 @@
         <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>5126</v>
+        <v>5298</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>4903</v>
+        <v>5070</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>22699</v>
+        <v>43656</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>5807</v>
+        <v>9697</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>4.43</v>
+        <v>8.24</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2790,25 +2790,25 @@
         <v>83</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>4649</v>
+        <v>4883</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>4331</v>
+        <v>4544</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>35227</v>
+        <v>77826</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>8562</v>
+        <v>19732</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>7.58</v>
+        <v>15.94</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2819,25 +2819,25 @@
         <v>84</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>4581</v>
+        <v>4807</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>4186</v>
+        <v>4398</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>50975</v>
+        <v>52606</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>6797</v>
+        <v>8023</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>11.13</v>
+        <v>10.94</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>238</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2848,25 +2848,25 @@
         <v>85</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>4493</v>
+        <v>4805</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>4109</v>
+        <v>4506</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>26672</v>
+        <v>65582</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>4138</v>
+        <v>8126</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>5.94</v>
+        <v>13.65</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2877,25 +2877,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>4440</v>
+        <v>4614</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>4202</v>
+        <v>4193</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>34122</v>
+        <v>104832</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>5054</v>
+        <v>10377</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>7.69</v>
+        <v>22.72</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2906,25 +2906,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>4030</v>
+        <v>4078</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>3682</v>
+        <v>3702</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>44880</v>
+        <v>87537</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>5019</v>
+        <v>8128</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>11.14</v>
+        <v>21.47</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2935,25 +2935,25 @@
         <v>88</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>3976</v>
+        <v>3949</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>3684</v>
+        <v>3499</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>32306</v>
+        <v>63721</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>4019</v>
+        <v>8819</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>8.13</v>
+        <v>16.14</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>264</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2964,25 +2964,25 @@
         <v>89</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>3860</v>
+        <v>3925</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>3420</v>
+        <v>3646</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>30918</v>
+        <v>61306</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>4638</v>
+        <v>6558</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>8.01</v>
+        <v>15.62</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2993,25 +2993,25 @@
         <v>90</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>3587</v>
+        <v>3715</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>3321</v>
+        <v>3440</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>26281</v>
+        <v>57122</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>4293</v>
+        <v>8921</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>7.33</v>
+        <v>15.38</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3025,22 +3025,22 @@
         <v>14</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>3402</v>
+        <v>3501</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>3083</v>
+        <v>3127</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>30774</v>
+        <v>63417</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>3391</v>
+        <v>5592</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>9.05</v>
+        <v>18.11</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3051,25 +3051,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2893</v>
+        <v>3001</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>2701</v>
+        <v>2909</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>19892</v>
+        <v>27919</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>2398</v>
+        <v>4484</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>6.88</v>
+        <v>9.3</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3080,25 +3080,25 @@
         <v>93</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>2684</v>
+        <v>2796</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>2532</v>
+        <v>2604</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>18961</v>
+        <v>40059</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2345</v>
+        <v>4188</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>7.06</v>
+        <v>14.33</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>202</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3109,25 +3109,25 @@
         <v>94</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>2677</v>
+        <v>2780</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>2574</v>
+        <v>2625</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>15991</v>
+        <v>36353</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>2927</v>
+        <v>3790</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>5.97</v>
+        <v>13.08</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3141,22 +3141,22 @@
         <v>14</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>2451</v>
+        <v>2498</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>2198</v>
+        <v>2231</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>28452</v>
+        <v>52881</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>2464</v>
+        <v>4025</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>11.61</v>
+        <v>21.17</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3167,25 +3167,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>2377</v>
+        <v>2427</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>2171</v>
+        <v>2212</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>16807</v>
+        <v>37299</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>2218</v>
+        <v>3611</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>7.07</v>
+        <v>15.37</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3196,25 +3196,25 @@
         <v>97</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>2359</v>
+        <v>2407</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>2223</v>
+        <v>2159</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>18687</v>
+        <v>45771</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>2267</v>
+        <v>3147</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>7.92</v>
+        <v>19.02</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>195</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3225,25 +3225,25 @@
         <v>98</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>2348</v>
+        <v>2391</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>2104</v>
+        <v>2154</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>25565</v>
+        <v>14080</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1854</v>
+        <v>2200</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>10.89</v>
+        <v>5.89</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3254,25 +3254,25 @@
         <v>99</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>2314</v>
+        <v>2363</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>2212</v>
+        <v>2235</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>25243</v>
+        <v>33565</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>2027</v>
+        <v>3281</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>10.91</v>
+        <v>14.2</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3283,25 +3283,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>2145</v>
+        <v>2306</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1932</v>
+        <v>2216</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>7730</v>
+        <v>52874</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1186</v>
+        <v>3505</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>3.6</v>
+        <v>22.93</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3312,25 +3312,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>2095</v>
+        <v>2146</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1910</v>
+        <v>1979</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>15477</v>
+        <v>31154</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>2600</v>
+        <v>4734</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>7.39</v>
+        <v>14.52</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3341,25 +3341,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>2084</v>
+        <v>2122</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1896</v>
+        <v>1931</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>15659</v>
+        <v>30828</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>2705</v>
+        <v>5185</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>7.51</v>
+        <v>14.53</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3373,22 +3373,22 @@
         <v>12</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>2060</v>
+        <v>2114</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1844</v>
+        <v>1896</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>16019</v>
+        <v>33929</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2402</v>
+        <v>4605</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>7.78</v>
+        <v>16.05</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3402,22 +3402,22 @@
         <v>28</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1993</v>
+        <v>2053</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1839</v>
+        <v>1891</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>13499</v>
+        <v>27057</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1592</v>
+        <v>2897</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>6.77</v>
+        <v>13.18</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3431,22 +3431,22 @@
         <v>14</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>1896</v>
+        <v>1933</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1698</v>
+        <v>1737</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>22862</v>
+        <v>44325</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>2051</v>
+        <v>3513</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>12.06</v>
+        <v>22.93</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3457,25 +3457,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1847</v>
+        <v>1929</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1729</v>
+        <v>1821</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>14631</v>
+        <v>28626</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>2765</v>
+        <v>5015</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>7.92</v>
+        <v>14.84</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3486,25 +3486,25 @@
         <v>107</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1678</v>
+        <v>1800</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1503</v>
+        <v>1561</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>9599</v>
+        <v>15004</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>892</v>
+        <v>1403</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>5.72</v>
+        <v>8.34</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>254</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3515,25 +3515,25 @@
         <v>108</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1661</v>
+        <v>1790</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1436</v>
+        <v>1757</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>7336</v>
+        <v>17928</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>798</v>
+        <v>3968</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>4.42</v>
+        <v>10.02</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3544,25 +3544,25 @@
         <v>109</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1552</v>
+        <v>1777</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1508</v>
+        <v>1594</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>9928</v>
+        <v>19446</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>2186</v>
+        <v>1436</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>6.4</v>
+        <v>10.94</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>138</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3576,22 +3576,22 @@
         <v>12</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1543</v>
+        <v>1600</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1491</v>
+        <v>1547</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>6624</v>
+        <v>12682</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>3474</v>
+        <v>5917</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>4.29</v>
+        <v>7.93</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3602,25 +3602,25 @@
         <v>111</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>1402</v>
+        <v>1448</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>12355</v>
+        <v>22212</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1644</v>
+        <v>1911</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>8.81</v>
+        <v>15.34</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3631,25 +3631,25 @@
         <v>112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>1392</v>
+        <v>1422</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1274</v>
+        <v>1344</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>10430</v>
+        <v>22040</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1097</v>
+        <v>2755</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>7.49</v>
+        <v>15.5</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3660,25 +3660,25 @@
         <v>113</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1115</v>
+        <v>1146</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1037</v>
+        <v>1066</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>6747</v>
+        <v>14492</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>626</v>
+        <v>1002</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>6.05</v>
+        <v>12.65</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3689,25 +3689,25 @@
         <v>114</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>1063</v>
+        <v>1131</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>989</v>
+        <v>1060</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>7248</v>
+        <v>13615</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>603</v>
+        <v>1028</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>6.82</v>
+        <v>12.04</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3718,25 +3718,25 @@
         <v>115</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>1062</v>
+        <v>1100</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>952</v>
+        <v>976</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>8671</v>
+        <v>13909</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>963</v>
+        <v>1766</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>8.16</v>
+        <v>12.64</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3747,25 +3747,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>6345</v>
+        <v>11727</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>546</v>
+        <v>925</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>5.98</v>
+        <v>11.02</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3779,22 +3779,22 @@
         <v>14</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>9953</v>
+        <v>19012</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>841</v>
+        <v>1262</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>9.71</v>
+        <v>18.21</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3805,25 +3805,25 @@
         <v>118</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>8883</v>
+        <v>19430</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1216</v>
+        <v>2155</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>8.67</v>
+        <v>18.63</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3834,25 +3834,25 @@
         <v>119</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>906</v>
+        <v>946</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>834</v>
+        <v>879</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>5978</v>
+        <v>11957</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>599</v>
+        <v>960</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>6.6</v>
+        <v>12.64</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3863,25 +3863,25 @@
         <v>120</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>6011</v>
+        <v>12559</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1001</v>
+        <v>1832</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>6.92</v>
+        <v>14.21</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3895,22 +3895,22 @@
         <v>28</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>6877</v>
+        <v>13549</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>388</v>
+        <v>699</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>8.12</v>
+        <v>16.09</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3921,25 +3921,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>9690</v>
+        <v>9559</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>873</v>
+        <v>1045</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3950,25 +3950,25 @@
         <v>123</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>795</v>
+        <v>820</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>722</v>
+        <v>757</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>5527</v>
+        <v>18372</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>604</v>
+        <v>1371</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>6.95</v>
+        <v>22.4</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>127</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3982,22 +3982,22 @@
         <v>12</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>4709</v>
+        <v>9070</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>577</v>
+        <v>829</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>5.99</v>
+        <v>11.5</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4008,25 +4008,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>6387</v>
+        <v>12933</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1341</v>
+        <v>1991</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>8.75</v>
+        <v>17.62</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4037,25 +4037,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>6465</v>
+        <v>8581</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>730</v>
+        <v>1140</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>9.3</v>
+        <v>12.09</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4066,25 +4066,25 @@
         <v>127</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>4113</v>
+        <v>12377</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>640</v>
+        <v>1351</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>6.23</v>
+        <v>17.83</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4095,25 +4095,25 @@
         <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>641</v>
+        <v>683</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>4040</v>
+        <v>8030</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>622</v>
+        <v>798</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>6.3</v>
+        <v>11.76</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4124,25 +4124,25 @@
         <v>129</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>589</v>
+        <v>650</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>5621</v>
+        <v>9876</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>525</v>
+        <v>1016</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>9.07</v>
+        <v>14.52</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4156,22 +4156,22 @@
         <v>12</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>4846</v>
+        <v>8172</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>672</v>
+        <v>1082</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>7.91</v>
+        <v>12.61</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4182,25 +4182,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>4026</v>
+        <v>10306</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>420</v>
+        <v>1142</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>6.63</v>
+        <v>16.36</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4211,25 +4211,25 @@
         <v>132</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>4094</v>
+        <v>8435</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>404</v>
+        <v>697</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>6.87</v>
+        <v>13.52</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4240,25 +4240,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>4196</v>
+        <v>7360</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>526</v>
+        <v>653</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>7.06</v>
+        <v>11.85</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4269,25 +4269,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>3084</v>
+        <v>6863</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>433</v>
+        <v>694</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>5.23</v>
+        <v>11.25</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4298,25 +4298,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>3895</v>
+        <v>7802</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>386</v>
+        <v>761</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>6.83</v>
+        <v>12.94</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4327,25 +4327,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>4386</v>
+        <v>7552</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>493</v>
+        <v>776</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>7.72</v>
+        <v>12.65</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4356,25 +4356,25 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>4237</v>
+        <v>7149</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>282</v>
+        <v>452</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>7.49</v>
+        <v>12.24</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4385,25 +4385,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>3625</v>
+        <v>9326</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>445</v>
+        <v>747</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>6.5</v>
+        <v>16.28</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4414,25 +4414,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>5881</v>
+        <v>13045</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>549</v>
+        <v>988</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>10.65</v>
+        <v>23.21</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4446,22 +4446,22 @@
         <v>12</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>4018</v>
+        <v>7946</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>486</v>
+        <v>782</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>7.6</v>
+        <v>14.82</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4475,22 +4475,22 @@
         <v>28</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>3238</v>
+        <v>7561</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>247</v>
+        <v>405</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>6.87</v>
+        <v>15.46</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4501,25 +4501,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>3455</v>
+        <v>8667</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>7.37</v>
+        <v>17.87</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4530,25 +4530,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>4252</v>
+        <v>6693</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>293</v>
+        <v>585</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>9.2</v>
+        <v>14.24</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4559,25 +4559,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>4635</v>
+        <v>7789</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>243</v>
+        <v>457</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>10.46</v>
+        <v>16.93</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4588,25 +4588,25 @@
         <v>145</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>3239</v>
+        <v>7217</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>370</v>
+        <v>542</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>7.48</v>
+        <v>15.9</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4617,25 +4617,25 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>3888</v>
+        <v>6936</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>322</v>
+        <v>602</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>9.21</v>
+        <v>15.55</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4649,22 +4649,22 @@
         <v>28</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>3860</v>
+        <v>8117</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>257</v>
+        <v>383</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>9.35</v>
+        <v>18.32</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4678,22 +4678,22 @@
         <v>28</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>3119</v>
+        <v>6832</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>7.88</v>
+        <v>17.52</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4704,25 +4704,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>2448</v>
+        <v>4955</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>439</v>
+        <v>818</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>6.73</v>
+        <v>13.5</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4733,25 +4733,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>2734</v>
+        <v>5353</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>7.81</v>
+        <v>14.83</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4762,25 +4762,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>2690</v>
+        <v>3975</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>7.69</v>
+        <v>11.07</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4794,22 +4794,22 @@
         <v>12</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1867</v>
+        <v>5378</v>
       </c>
       <c r="G136" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="I136" s="0" t="n">
         <v>117</v>
-      </c>
-      <c r="H136" s="0" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="I136" s="0" t="n">
-        <v>69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4823,22 +4823,22 @@
         <v>28</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>3167</v>
+        <v>6346</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>9.63</v>
+        <v>18.94</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4849,25 +4849,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1881</v>
+        <v>4130</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>209</v>
+        <v>427</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>6.65</v>
+        <v>14</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4881,22 +4881,22 @@
         <v>28</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1844</v>
+        <v>3893</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>6.66</v>
+        <v>13.9</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4907,25 +4907,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1661</v>
+        <v>10235</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>171</v>
+        <v>394</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>6.62</v>
+        <v>40.45</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4936,25 +4936,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>5596</v>
+        <v>4744</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>22.47</v>
+        <v>19.44</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4965,25 +4965,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1697</v>
+        <v>3334</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>7.22</v>
+        <v>13.72</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4994,25 +4994,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2172</v>
+        <v>3073</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>9.36</v>
+        <v>12.86</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5023,25 +5023,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1739</v>
+        <v>2902</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>7.59</v>
+        <v>12.4</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5055,22 +5055,22 @@
         <v>28</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1098</v>
+        <v>2350</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>4.86</v>
+        <v>10.09</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5081,25 +5081,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D146" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="E146" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E146" s="0" t="n">
-        <v>215</v>
-      </c>
       <c r="F146" s="0" t="n">
-        <v>1352</v>
+        <v>2676</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>6.12</v>
+        <v>11.58</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5110,25 +5110,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1385</v>
+        <v>3021</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>6.32</v>
+        <v>13.13</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5139,25 +5139,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1452</v>
+        <v>2673</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>6.95</v>
+        <v>12.1</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5168,25 +5168,25 @@
         <v>165</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>2270</v>
+        <v>4497</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>11.24</v>
+        <v>22.15</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5200,22 +5200,22 @@
         <v>24</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>184</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>2052</v>
+        <v>3715</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>10.63</v>
+        <v>19.55</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5226,25 +5226,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1424</v>
+        <v>2881</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>7.82</v>
+        <v>15.57</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5258,22 +5258,22 @@
         <v>24</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1384</v>
+        <v>2829</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>7.95</v>
+        <v>16.35</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5284,25 +5284,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1079</v>
+        <v>2226</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>6.58</v>
+        <v>12.87</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5313,25 +5313,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>4203</v>
+        <v>1603</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>27.47</v>
+        <v>9.96</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5342,25 +5342,25 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>863</v>
+        <v>10171</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>5.68</v>
+        <v>64.78</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5371,25 +5371,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1689</v>
+        <v>2236</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>11.19</v>
+        <v>14.33</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5400,25 +5400,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>932</v>
+        <v>3670</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>6.26</v>
+        <v>24.14</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5432,22 +5432,22 @@
         <v>28</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1408</v>
+        <v>2599</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>9.51</v>
+        <v>17.68</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5461,22 +5461,22 @@
         <v>14</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1583</v>
+        <v>3291</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>11.31</v>
+        <v>22.54</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5487,25 +5487,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1129</v>
+        <v>2174</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>8.75</v>
+        <v>16.22</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5519,22 +5519,22 @@
         <v>28</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>796</v>
+        <v>1672</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>6.37</v>
+        <v>13.17</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5545,25 +5545,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>2300</v>
+        <v>1562</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>18.4</v>
+        <v>12.3</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5574,25 +5574,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>758</v>
+        <v>4085</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>6.21</v>
+        <v>32.94</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5606,22 +5606,22 @@
         <v>28</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>621</v>
+        <v>1256</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>5.26</v>
+        <v>10.3</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5635,22 +5635,22 @@
         <v>14</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1006</v>
+        <v>2078</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>8.75</v>
+        <v>17.61</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5664,22 +5664,22 @@
         <v>28</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>98</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1391</v>
+        <v>2441</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>12.1</v>
+        <v>21.79</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5690,25 +5690,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>878</v>
+        <v>758</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>9.34</v>
+        <v>7.15</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5719,25 +5719,25 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>334</v>
+        <v>1249</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>3.59</v>
+        <v>12.25</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5748,25 +5748,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>541</v>
+        <v>1872</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>6.15</v>
+        <v>19.91</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5777,25 +5777,25 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>233</v>
+        <v>975</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>2.95</v>
+        <v>10.6</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5806,25 +5806,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>9.03</v>
+        <v>5.89</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5835,25 +5835,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D172" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E172" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="E172" s="0" t="n">
-        <v>62</v>
-      </c>
       <c r="F172" s="0" t="n">
-        <v>745</v>
+        <v>1512</v>
       </c>
       <c r="G172" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="H172" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H172" s="0" t="n">
-        <v>10.96</v>
-      </c>
       <c r="I172" s="0" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5864,25 +5864,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>679</v>
+        <v>994</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>10.45</v>
+        <v>14</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5893,25 +5893,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>426</v>
+        <v>1322</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>6.76</v>
+        <v>20.66</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5922,25 +5922,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>568</v>
+        <v>953</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>9.31</v>
+        <v>15.37</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5954,22 +5954,22 @@
         <v>28</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>578</v>
+        <v>1153</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>9.63</v>
+        <v>18.6</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5980,25 +5980,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>7.67</v>
+        <v>7.11</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6009,25 +6009,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>369</v>
+        <v>858</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>6.25</v>
+        <v>14.3</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6038,25 +6038,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D179" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E179" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="E179" s="0" t="n">
-        <v>51</v>
-      </c>
       <c r="F179" s="0" t="n">
-        <v>191</v>
+        <v>920</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>3.35</v>
+        <v>15.59</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6067,25 +6067,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>1048</v>
+        <v>2332</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>18.39</v>
+        <v>42.4</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6096,25 +6096,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>510</v>
+        <v>668</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>9.27</v>
+        <v>12.37</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6125,25 +6125,25 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>54</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>324</v>
+        <v>1003</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>6</v>
+        <v>18.57</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6160,19 +6160,19 @@
         <v>53</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>963</v>
+        <v>1528</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>18.17</v>
+        <v>28.83</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6186,22 +6186,22 @@
         <v>24</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>51</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>688</v>
+        <v>1353</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>12.98</v>
+        <v>26.02</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6215,22 +6215,22 @@
         <v>28</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>276</v>
+        <v>590</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>5.41</v>
+        <v>11.8</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6241,25 +6241,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E186" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D186" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="E186" s="0" t="n">
-        <v>41</v>
-      </c>
       <c r="F186" s="0" t="n">
-        <v>152</v>
+        <v>882</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>3.17</v>
+        <v>17.64</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6273,22 +6273,22 @@
         <v>24</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>187</v>
+        <v>403</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>3.98</v>
+        <v>8.22</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6299,25 +6299,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>8.46</v>
+        <v>6</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6328,25 +6328,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>41</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>211</v>
+        <v>855</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>4.8</v>
+        <v>18.59</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6360,22 +6360,22 @@
         <v>24</v>
       </c>
       <c r="D190" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E190" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="E190" s="0" t="n">
-        <v>38</v>
-      </c>
       <c r="F190" s="0" t="n">
-        <v>219</v>
+        <v>483</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>5.21</v>
+        <v>10.5</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6386,25 +6386,25 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>358</v>
+        <v>441</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>8.73</v>
+        <v>9.8</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6415,25 +6415,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>13.83</v>
+        <v>14.56</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6444,25 +6444,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>136</v>
+        <v>724</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>4.12</v>
+        <v>23.35</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6476,22 +6476,22 @@
         <v>28</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>7.15</v>
+        <v>9.35</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6511,16 +6511,16 @@
         <v>27</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>216</v>
+        <v>429</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>7.71</v>
+        <v>15.32</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6534,22 +6534,22 @@
         <v>28</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>154</v>
+        <v>317</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>6.42</v>
+        <v>11.74</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6560,25 +6560,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>7.14</v>
+        <v>3.87</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6589,25 +6589,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>2.05</v>
+        <v>11.04</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6618,25 +6618,25 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>157</v>
+        <v>946</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>7.85</v>
+        <v>47.3</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6647,7 +6647,7 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>20</v>
@@ -6656,16 +6656,16 @@
         <v>20</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>5</v>
+        <v>10.85</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6676,25 +6676,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>21.53</v>
+        <v>14.15</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6708,22 +6708,22 @@
         <v>24</v>
       </c>
       <c r="D202" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E202" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E202" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="F202" s="0" t="n">
-        <v>338</v>
+        <v>652</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>18.78</v>
+        <v>34.32</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6737,22 +6737,22 @@
         <v>28</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>5</v>
+        <v>9.56</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6763,25 +6763,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>74</v>
+        <v>433</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>4.93</v>
+        <v>27.06</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6798,19 +6798,19 @@
         <v>15</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>904</v>
+        <v>63</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>60.27</v>
+        <v>4.2</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6821,25 +6821,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>2.4</v>
+        <v>5.27</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6853,22 +6853,22 @@
         <v>12</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>183</v>
+        <v>468</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>13.07</v>
+        <v>31.2</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6885,19 +6885,19 @@
         <v>13</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>2.23</v>
+        <v>12.46</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6917,16 +6917,16 @@
         <v>13</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>1.85</v>
+        <v>4.31</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6937,25 +6937,25 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>7.38</v>
+        <v>11.36</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6966,25 +6966,25 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>9.7</v>
+        <v>18.18</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6995,25 +6995,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>3.1</v>
+        <v>5.18</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7033,16 +7033,16 @@
         <v>8</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7053,25 +7053,25 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7082,25 +7082,25 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F215" s="0" t="n">
         <v>211</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>23.44</v>
+        <v>21.1</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7111,25 +7111,25 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>2.75</v>
+        <v>24.78</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7140,25 +7140,25 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>114</v>
+        <v>546</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>14.25</v>
+        <v>60.67</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7169,25 +7169,25 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D218" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E218" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="F218" s="0" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>3</v>
+        <v>5.38</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7198,25 +7198,25 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>7.71</v>
+        <v>29.86</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7227,25 +7227,25 @@
         <v>236</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E220" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>17.17</v>
+        <v>8.29</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7262,19 +7262,19 @@
         <v>6</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7285,7 +7285,7 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>5</v>
@@ -7294,16 +7294,16 @@
         <v>5</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>1.6</v>
+        <v>13.4</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7314,25 +7314,25 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>11.8</v>
+        <v>4</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7343,25 +7343,25 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F224" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I224" s="0" t="n">
         <v>23</v>
-      </c>
-      <c r="G224" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H224" s="0" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I224" s="0" t="n">
-        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7372,7 +7372,7 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>4</v>
@@ -7381,16 +7381,16 @@
         <v>4</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>3.75</v>
+        <v>8.25</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7410,16 +7410,16 @@
         <v>3</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>9.67</v>
+        <v>17.33</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7439,16 +7439,16 @@
         <v>3</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>7.67</v>
+        <v>14</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7465,19 +7465,19 @@
         <v>2</v>
       </c>
       <c r="E228" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="G228" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F228" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G228" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H228" s="0" t="n">
-        <v>2.5</v>
+        <v>34.5</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7497,16 +7497,16 @@
         <v>2</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7523,19 +7523,19 @@
         <v>2</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G230" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>19.5</v>
+        <v>2.5</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7555,16 +7555,16 @@
         <v>2</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7575,7 +7575,7 @@
         <v>248</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>1</v>
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
@@ -7604,7 +7604,7 @@
         <v>249</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>1</v>
@@ -7613,16 +7613,16 @@
         <v>1</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H233" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
